--- a/DaringDeeds/Bin/Daring Deeds Character Sheet v2.xlsx
+++ b/DaringDeeds/Bin/Daring Deeds Character Sheet v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPGs\D&amp;D\5e\GameDesignRepo\DaringDeeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPGs\D&amp;D\5e\GameDesignRepo\DaringDeeds\Bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A90EE5-DD48-4E2D-AC91-005C2C0B2022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93D5327-B887-4571-B37B-1F1350614252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A097D365-FC91-4133-A7F4-12ED45EA313D}"/>
+    <workbookView xWindow="-19310" yWindow="3650" windowWidth="19420" windowHeight="10300" xr2:uid="{A097D365-FC91-4133-A7F4-12ED45EA313D}"/>
   </bookViews>
   <sheets>
     <sheet name="Character Sheet" sheetId="1" r:id="rId1"/>
@@ -615,10 +615,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F16EEE3-5C1D-4F06-A658-3E7BE200263B}">
   <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="36.6" x14ac:dyDescent="0.7"/>
@@ -1769,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88B31CE-0184-47F1-A223-45B72A32F4AD}">
   <dimension ref="A2:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1831,10 +1831,10 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="50"/>
+      <c r="J4" s="51"/>
       <c r="L4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1857,10 +1857,10 @@
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="51"/>
+      <c r="J5" s="50"/>
       <c r="K5" s="1"/>
       <c r="L5" s="11" t="s">
         <v>14</v>
@@ -1887,10 +1887,10 @@
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="50"/>
       <c r="K6" s="1"/>
       <c r="L6" s="11" t="s">
         <v>15</v>
@@ -1914,10 +1914,10 @@
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="51"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="7"/>
       <c r="L7" s="11" t="s">
         <v>46</v>
@@ -1941,10 +1941,10 @@
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="51"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="1"/>
       <c r="L8" s="11" t="s">
         <v>31</v>
@@ -1968,10 +1968,10 @@
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="51"/>
+      <c r="J9" s="50"/>
       <c r="K9" s="1"/>
       <c r="L9" s="11" t="s">
         <v>13</v>
